--- a/reverseprimer-v3_07.xlsx
+++ b/reverseprimer-v3_07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="reverseprimer-v3_07" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>R0577-GTGTTCCTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTTCCTCTGTCTCGTGGGCTCGG</t>
+    <t>R0577-ATCTAGGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTAGGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>R0578-AGGTACGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGGTACGTTCGTCTCGTGGGCTCGG</t>
+    <t>R0578-ATGCTGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCTGACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>R0579-TACCTAGGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACCTAGGACGTCTCGTGGGCTCGG</t>
+    <t>R0579-CGTTGAAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGTTGAAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>R0580-ACAGTAGTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAGTAGTCGGTCTCGTGGGCTCGG</t>
+    <t>R0580-GAAGAGTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGAGTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>R0581-GATCACAGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGATCACAGCAGTCTCGTGGGCTCGG</t>
+    <t>R0581-ACTTCCAACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCCAACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>R0582-CATCCACTGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCCACTGTGTCTCGTGGGCTCGG</t>
+    <t>R0582-GATGGTCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGGTCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>R0583-TACGTTCTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGTTCTCCGTCTCGTGGGCTCGG</t>
+    <t>R0583-TCTCAACAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCAACAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>R0584-AGAGTCGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAGTCGTACGTCTCGTGGGCTCGG</t>
+    <t>R0584-GAACATCAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACATCAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>R0585-TCTGTACTCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTACTCTGTCTCGTGGGCTCGG</t>
+    <t>R0585-TTGATGCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGATGCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A10</t>
   </si>
   <si>
-    <t>R0586-GTTCTCAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCTCAACGGTCTCGTGGGCTCGG</t>
+    <t>R0586-CAACAGACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAACAGACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A11</t>
   </si>
   <si>
-    <t>R0587-AACTCGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACTCGATGAGTCTCGTGGGCTCGG</t>
+    <t>R0587-AACGATGTGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGATGTGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>R0588-ATGTGCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATGTGCAACCGTCTCGTGGGCTCGG</t>
+    <t>R0588-AGTAGCTTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGCTTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>R0589-CTCATCCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCATCCTACGTCTCGTGGGCTCGG</t>
+    <t>R0589-AGAACCTCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACCTCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>R0590-CACTTGGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTTGGATGGTCTCGTGGGCTCGG</t>
+    <t>R0590-TCGTGAACGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTGAACGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>R0591-TCTCGTTGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTCGTTGCAGTCTCGTGGGCTCGG</t>
+    <t>R0591-CTCAACAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCAACAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>R0592-TTCAGAAGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCAGAAGGTGTCTCGTGGGCTCGG</t>
+    <t>R0592-TTGCTAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGCTAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>R0593-ACCAACTAGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAACTAGAGTCTCGTGGGCTCGG</t>
+    <t>R0593-AGACTTCTGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGACTTCTGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>R0594-TAGGAAGGTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGGAAGGTCGTCTCGTGGGCTCGG</t>
+    <t>R0594-ACACTCAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACACTCAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>R0595-TTCCACCTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCCACCTACGTCTCGTGGGCTCGG</t>
+    <t>R0595-ACGAGTCTGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACGAGTCTGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>R0596-TGCAAGGTAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGGTACGTCTCGTGGGCTCGG</t>
+    <t>R0596-AGTAGTCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGTAGTCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>R0597-AACAACCAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACAACCAGGGTCTCGTGGGCTCGG</t>
+    <t>R0597-GAACATCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAACATCCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>R0598-TCACCAGATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCACCAGATGGTCTCGTGGGCTCGG</t>
+    <t>R0598-GAAGCATGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCATGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>R0599-CTAGATCAGC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGATCAGCGTCTCGTGGGCTCGG</t>
+    <t>R0599-ACCATGCAAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATGCAACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>R0600-CGTGTAGCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCGTGTAGCTTGTCTCGTGGGCTCGG</t>
+    <t>R0600-TTCACCTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCACCTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>R0601-CACTACACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTACACGAGTCTCGTGGGCTCGG</t>
+    <t>R0601-CATCCTAGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCATCCTAGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>R0602-AAGAGTACTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGAGTACTGGTCTCGTGGGCTCGG</t>
+    <t>R0602-ATCGTACGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCGTACGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>R0603-GCATCTACTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCATCTACTAGTCTCGTGGGCTCGG</t>
+    <t>R0603-CACTTCAAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTTCAAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>R0604-TACTTCCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACTTCCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0604-TTGAACTAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGAACTAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>R0605-TGACGTACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGACGTACCTGTCTCGTGGGCTCGG</t>
+    <t>R0605-GATGCAGGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATGCAGGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>R0606-TTGAGAAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAGAAGTGGTCTCGTGGGCTCGG</t>
+    <t>R0606-CAGCAAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGCAAGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>R0607-GTCAACAAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCAACAAGGGTCTCGTGGGCTCGG</t>
+    <t>R0607-ATGCAACCAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGCAACCAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>R0608-TACGATCCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACGATCCACGTCTCGTGGGCTCGG</t>
+    <t>R0608-AACTAGCATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTAGCATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C9</t>
   </si>
   <si>
-    <t>R0609-CACTGTACGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTGTACGTGTCTCGTGGGCTCGG</t>
+    <t>R0609-GTCGAAGAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCGAAGAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C10</t>
   </si>
   <si>
-    <t>R0610-CAAGAACCTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGAACCTCGTCTCGTGGGCTCGG</t>
+    <t>R0610-TAGCTGCAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGCTGCAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C11</t>
   </si>
   <si>
-    <t>R0611-TGAGGTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGAGGTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0611-ACCTGATGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCTGATGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>C12</t>
   </si>
   <si>
-    <t>R0612-GTAGAGACGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGAGACGAGTCTCGTGGGCTCGG</t>
+    <t>R0612-AGAACTGCAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAACTGCATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D1</t>
   </si>
   <si>
-    <t>R0613-CTGCTTCGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGCTTCGAAGTCTCGTGGGCTCGG</t>
+    <t>R0613-TCTCTCCACT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCTCCACTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D2</t>
   </si>
   <si>
-    <t>R0614-TGCTCCTCAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTCCTCAAGTCTCGTGGGCTCGG</t>
+    <t>R0614-GATCGATGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCGATGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>R0615-TCTAGTGCAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTAGTGCAGGTCTCGTGGGCTCGG</t>
+    <t>R0615-AACTTCCAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACTTCCAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>R0616-CAAGACCACA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAAGACCACAGTCTCGTGGGCTCGG</t>
+    <t>R0616-ATGGACGTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGACGTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>R0617-ACGTACATCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACGTACATCGGTCTCGTGGGCTCGG</t>
+    <t>R0617-TCTCACTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCTCACTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
-    <t>R0618-TGGATCAACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGGATCAACGGTCTCGTGGGCTCGG</t>
+    <t>R0618-ATGTTGGTCC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGTTGGTCCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D7</t>
   </si>
   <si>
-    <t>R0619-AGCAGGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCAGGAGATGTCTCGTGGGCTCGG</t>
+    <t>R0619-GACACATGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACACATGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D8</t>
   </si>
   <si>
-    <t>R0620-CAGAGAAGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCAGAGAAGAAGTCTCGTGGGCTCGG</t>
+    <t>R0620-CGATCACAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCGATCACAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D9</t>
   </si>
   <si>
-    <t>R0621-AGCTAGAGTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGCTAGAGTGGTCTCGTGGGCTCGG</t>
+    <t>R0621-CACTCTGTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTCTGTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D10</t>
   </si>
   <si>
-    <t>R0622-GTAGACGTTC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTAGACGTTCGTCTCGTGGGCTCGG</t>
+    <t>R0622-GCATCATCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCATCATCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D11</t>
   </si>
   <si>
-    <t>R0623-CATCGTGATC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCGTGATCGTCTCGTGGGCTCGG</t>
+    <t>R0623-CTTCTGGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCTGGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>D12</t>
   </si>
   <si>
-    <t>R0624-CACTTGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACTTGATGTGTCTCGTGGGCTCGG</t>
+    <t>R0624-GGATGTCGAT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGATGTCGATGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E1</t>
   </si>
   <si>
-    <t>R0625-CTCGTTCGTA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCGTTCGTAGTCTCGTGGGCTCGG</t>
+    <t>R0625-TAGAGCACAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGCACAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E2</t>
   </si>
   <si>
-    <t>R0626-CTTCGATCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTTCGATCTGGTCTCGTGGGCTCGG</t>
+    <t>R0626-TTCTTGTGCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTTGTGCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>R0627-TTGACGACAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGACGACAAGTCTCGTGGGCTCGG</t>
+    <t>R0627-TCCTCATCAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTCATCACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>R0628-TAGCTCCATG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGCTCCATGGTCTCGTGGGCTCGG</t>
+    <t>R0628-ACTTCGTCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTTCGTCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E5</t>
   </si>
   <si>
-    <t>R0629-CACACTTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACACTTGGTGTCTCGTGGGCTCGG</t>
+    <t>R0629-TGAGATCCTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAGATCCTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E6</t>
   </si>
   <si>
-    <t>R0630-GTCTGACGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTGACGTTGTCTCGTGGGCTCGG</t>
+    <t>R0630-AGGAGACGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGAGACGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E7</t>
   </si>
   <si>
-    <t>R0631-AACGTGTACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGTGTACCGTCTCGTGGGCTCGG</t>
+    <t>R0631-TCGTTGGTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGTTGGTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E8</t>
   </si>
   <si>
-    <t>R0632-GTGTGTACCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGTGTACCTGTCTCGTGGGCTCGG</t>
+    <t>R0632-ATCTCATGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATCTCATGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E9</t>
   </si>
   <si>
-    <t>R0633-GCTAGTGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTAGTGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0633-TAGAGGTGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGAGGTGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>R0634-GAAGTTGAGG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAAGTTGAGGGTCTCGTGGGCTCGG</t>
+    <t>R0634-TCGACATCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCGACATCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E11</t>
   </si>
   <si>
-    <t>R0635-ACCAAGCTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCAAGCTCAGTCTCGTGGGCTCGG</t>
+    <t>R0635-AACCTAGATC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCTAGATCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>E12</t>
   </si>
   <si>
-    <t>R0636-AAGGTCAACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTCAACCGTCTCGTGGGCTCGG</t>
+    <t>R0636-GCAAGTCAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCAAGTCAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F1</t>
   </si>
   <si>
-    <t>R0637-TACAACTTCG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAACTTCGGTCTCGTGGGCTCGG</t>
+    <t>R0637-GATCACTACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGATCACTACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F2</t>
   </si>
   <si>
-    <t>R0638-AAGGTGAGCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGGTGAGCTGTCTCGTGGGCTCGG</t>
+    <t>R0638-TGTGTTCCAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGTGTTCCAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F3</t>
   </si>
   <si>
-    <t>R0639-GAACACTCTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGAACACTCTGGTCTCGTGGGCTCGG</t>
+    <t>R0639-GAAGCTAGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAAGCTAGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F4</t>
   </si>
   <si>
-    <t>R0640-ACCTCTTCGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACCTCTTCGAGTCTCGTGGGCTCGG</t>
+    <t>R0640-CACAGAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACAGAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F5</t>
   </si>
   <si>
-    <t>R0641-CTCAAGCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAAGCTTGGTCTCGTGGGCTCGG</t>
+    <t>R0641-CACTACTACC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACTACTACCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F6</t>
   </si>
   <si>
-    <t>R0642-GTCTTGGAGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTTGGAGTGTCTCGTGGGCTCGG</t>
+    <t>R0642-CTTCGTAGTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTTCGTAGTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F7</t>
   </si>
   <si>
-    <t>R0643-GGATGGTCTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGGTCTTGTCTCGTGGGCTCGG</t>
+    <t>R0643-AACCAAGACG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACCAAGACGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F8</t>
   </si>
   <si>
-    <t>R0644-ACTCACGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACTCACGTCAGTCTCGTGGGCTCGG</t>
+    <t>R0644-GTCACTACTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTCACTACTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F9</t>
   </si>
   <si>
-    <t>R0645-GACTGACAAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGACTGACAAGGTCTCGTGGGCTCGG</t>
+    <t>R0645-GACTTCTGAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGACTTCTGAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F10</t>
   </si>
   <si>
-    <t>R0646-ATCTCGTCAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATATCTCGTCATGTCTCGTGGGCTCGG</t>
+    <t>R0646-AGCAACTGGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGCAACTGGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F11</t>
   </si>
   <si>
-    <t>R0647-TCTGTGATGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCTGTGATGTGTCTCGTGGGCTCGG</t>
+    <t>R0647-TCCTACTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCTACTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>F12</t>
   </si>
   <si>
-    <t>R0648-TACAGCAGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACAGCAGTTGTCTCGTGGGCTCGG</t>
+    <t>R0648-GAGTACTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGAGTACTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G1</t>
   </si>
   <si>
-    <t>R0649-TACATCTGGT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTACATCTGGTGTCTCGTGGGCTCGG</t>
+    <t>R0649-GCTAGTTGGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGCTAGTTGGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G2</t>
   </si>
   <si>
-    <t>R0650-CTGACATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGACATCCTGTCTCGTGGGCTCGG</t>
+    <t>R0650-TGAACAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGAACAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G3</t>
   </si>
   <si>
-    <t>R0651-CACACGAGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCACACGAGATGTCTCGTGGGCTCGG</t>
+    <t>R0651-CACGACTTCA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCACGACTTCAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>R0652-AGAACATCCT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGAACATCCTGTCTCGTGGGCTCGG</t>
+    <t>R0652-CAGTTGGAGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCAGTTGGAGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G5</t>
   </si>
   <si>
-    <t>R0653-AACGACTACG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAACGACTACGGTCTCGTGGGCTCGG</t>
+    <t>R0653-TGCAAGAAGC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGCAAGAAGCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G6</t>
   </si>
   <si>
-    <t>R0654-CTAGCATGCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTAGCATGCAGTCTCGTGGGCTCGG</t>
+    <t>R0654-GTGAGTTCTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGTGAGTTCTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>R0655-GGATGAGGTT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGGATGAGGTTGTCTCGTGGGCTCGG</t>
+    <t>R0655-AAGCTAGTGT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGCTAGTGTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>R0656-TTCGTACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTCGTACAACGTCTCGTGGGCTCGG</t>
+    <t>R0656-GGTGAAGAAG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTGAAGAAGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>R0657-CATCTTGGAG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCATCTTGGAGGTCTCGTGGGCTCGG</t>
+    <t>R0657-TCCATCCTTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTCCATCCTTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>R0658-ACAACAGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATACAACAGGAAGTCTCGTGGGCTCGG</t>
+    <t>R0658-CTCTGCTACA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATCTCTGCTACAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>R0659-AGTTGAGCAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGTTGAGCACGTCTCGTGGGCTCGG</t>
+    <t>R0659-ATGGTGTGTT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATATGGTGTGTTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>R0660-GTGCAACTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTGCAACTTGGTCTCGTGGGCTCGG</t>
+    <t>R0660-AACGTAGCTA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAACGTAGCTAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>R0661-TAGTGACAAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTGACAACGTCTCGTGGGCTCGG</t>
+    <t>R0661-AAGGAGGTCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAAGGAGGTCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>R0662-TTGAACCTTG</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTTGAACCTTGGTCTCGTGGGCTCGG</t>
+    <t>R0662-TACAGGTCCT</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTACAGGTCCTGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>R0663-TGCTACTGAT</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTGCTACTGATGTCTCGTGGGCTCGG</t>
+    <t>R0663-ACTCCTAGAA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTCCTAGAAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>R0664-AAGATCAGAC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAAGATCAGACGTCTCGTGGGCTCGG</t>
+    <t>R0664-TTGGTACGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTGGTACGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>R0665-TCAACTGTCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTCAACTGTCAGTCTCGTGGGCTCGG</t>
+    <t>R0665-ACCATGTAGG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACCATGTAGGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>R0666-GTCTCTTCCA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTCTCTTCCAGTCTCGTGGGCTCGG</t>
+    <t>R0666-TTCTCTTCTC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTTCTCTTCTCGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>R0667-CTCAGGATGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTCAGGATGAGTCTCGTGGGCTCGG</t>
+    <t>R0667-TAGTCGAGTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTAGTCGAGTGGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>R0668-GTTCACTTCC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGTTCACTTCCGTCTCGTGGGCTCGG</t>
+    <t>R0668-ACTGGTCTAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATACTGGTCTACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>R0669-GCTAGAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATGCTAGAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R0669-TGGACCAAGA</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATTGGACCAAGAGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>R0670-AGATCAGTGA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATAGATCAGTGAGTCTCGTGGGCTCGG</t>
+    <t>R0670-AGAGAGTGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGAGAGTGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>R0671-TAGTCTGACC</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATTAGTCTGACCGTCTCGTGGGCTCGG</t>
+    <t>R0671-AGGTTGAGAC</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATAGGTTGAGACGTCTCGTGGGCTCGG</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>R0672-CTGGATGGAA</t>
-  </si>
-  <si>
-    <t>CAAGCAGAAGACGGCATACGAGATCTGGATGGAAGTCTCGTGGGCTCGG</t>
+    <t>R0672-GGTAGAGTTG</t>
+  </si>
+  <si>
+    <t>CAAGCAGAAGACGGCATACGAGATGGTAGAGTTGGTCTCGTGGGCTCGG</t>
   </si>
 </sst>
 </file>
